--- a/update/historicos/curva_pesos_uyu_temp.xlsx
+++ b/update/historicos/curva_pesos_uyu_temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,3466 +523,3411 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10/02/2026</t>
+          <t>12/02/2026</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.9196</v>
+        <v>5.7744</v>
       </c>
       <c r="C2" t="n">
-        <v>5.8931</v>
+        <v>5.8609</v>
       </c>
       <c r="D2" t="n">
-        <v>5.8719</v>
+        <v>5.8813</v>
       </c>
       <c r="E2" t="n">
-        <v>5.8417</v>
+        <v>5.8543</v>
       </c>
       <c r="F2" t="n">
-        <v>5.8603</v>
+        <v>5.8012</v>
       </c>
       <c r="G2" t="n">
-        <v>5.9354</v>
+        <v>5.8003</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2787</v>
+        <v>6.1293</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6617</v>
+        <v>6.631</v>
       </c>
       <c r="J2" t="n">
-        <v>6.9661</v>
+        <v>6.9408</v>
       </c>
       <c r="K2" t="n">
-        <v>7.2462</v>
+        <v>7.2251</v>
       </c>
       <c r="L2" t="n">
-        <v>7.4778</v>
+        <v>7.4601</v>
       </c>
       <c r="M2" t="n">
-        <v>7.6378</v>
+        <v>7.6225</v>
       </c>
       <c r="N2" t="n">
-        <v>7.7004</v>
+        <v>7.6864</v>
       </c>
       <c r="O2" t="n">
-        <v>7.6375</v>
+        <v>7.6236</v>
       </c>
       <c r="P2" t="n">
-        <v>7.4219</v>
+        <v>7.4065</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0629</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09/02/2026</t>
+          <t>11/02/2026</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.0268</v>
+        <v>5.955</v>
       </c>
       <c r="C3" t="n">
-        <v>5.973</v>
+        <v>5.9215</v>
       </c>
       <c r="D3" t="n">
-        <v>5.9274</v>
+        <v>5.8935</v>
       </c>
       <c r="E3" t="n">
-        <v>5.8403</v>
+        <v>5.8436</v>
       </c>
       <c r="F3" t="n">
-        <v>5.8268</v>
+        <v>5.8465</v>
       </c>
       <c r="G3" t="n">
-        <v>5.8921</v>
+        <v>5.9327</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2539</v>
+        <v>6.3083</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6657</v>
+        <v>6.6426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.9761</v>
+        <v>6.9465</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2614</v>
+        <v>7.2268</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4975</v>
+        <v>7.46</v>
       </c>
       <c r="M3" t="n">
-        <v>7.6608</v>
+        <v>7.6235</v>
       </c>
       <c r="N3" t="n">
-        <v>7.7252</v>
+        <v>7.692</v>
       </c>
       <c r="O3" t="n">
-        <v>7.6621</v>
+        <v>7.6381</v>
       </c>
       <c r="P3" t="n">
-        <v>7.4437</v>
+        <v>7.4346</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06320000000000001</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06/02/2026</t>
+          <t>10/02/2026</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.8758</v>
+        <v>5.9196</v>
       </c>
       <c r="C4" t="n">
-        <v>5.8655</v>
+        <v>5.8931</v>
       </c>
       <c r="D4" t="n">
-        <v>5.8575</v>
+        <v>5.8719</v>
       </c>
       <c r="E4" t="n">
-        <v>5.8473</v>
+        <v>5.8417</v>
       </c>
       <c r="F4" t="n">
-        <v>5.8483</v>
+        <v>5.8603</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8904</v>
+        <v>5.9354</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2252</v>
+        <v>6.2787</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6674</v>
+        <v>6.6617</v>
       </c>
       <c r="J4" t="n">
-        <v>6.9805</v>
+        <v>6.9661</v>
       </c>
       <c r="K4" t="n">
-        <v>7.268</v>
+        <v>7.2462</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5055</v>
+        <v>7.4778</v>
       </c>
       <c r="M4" t="n">
-        <v>7.6691</v>
+        <v>7.6378</v>
       </c>
       <c r="N4" t="n">
-        <v>7.7325</v>
+        <v>7.7004</v>
       </c>
       <c r="O4" t="n">
-        <v>7.6666</v>
+        <v>7.6375</v>
       </c>
       <c r="P4" t="n">
-        <v>7.4436</v>
+        <v>7.4219</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06279999999999999</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05/02/2026</t>
+          <t>09/02/2026</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.9704</v>
+        <v>6.0268</v>
       </c>
       <c r="C5" t="n">
-        <v>5.9617</v>
+        <v>5.973</v>
       </c>
       <c r="D5" t="n">
-        <v>5.9507</v>
+        <v>5.9274</v>
       </c>
       <c r="E5" t="n">
-        <v>5.9164</v>
+        <v>5.8403</v>
       </c>
       <c r="F5" t="n">
-        <v>5.8826</v>
+        <v>5.8268</v>
       </c>
       <c r="G5" t="n">
-        <v>5.9276</v>
+        <v>5.8921</v>
       </c>
       <c r="H5" t="n">
-        <v>6.3089</v>
+        <v>6.2539</v>
       </c>
       <c r="I5" t="n">
-        <v>6.7766</v>
+        <v>6.6657</v>
       </c>
       <c r="J5" t="n">
-        <v>7.0617</v>
+        <v>6.9761</v>
       </c>
       <c r="K5" t="n">
-        <v>7.3252</v>
+        <v>7.2614</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5412</v>
+        <v>7.4975</v>
       </c>
       <c r="M5" t="n">
-        <v>7.6855</v>
+        <v>7.6608</v>
       </c>
       <c r="N5" t="n">
-        <v>7.7323</v>
+        <v>7.7252</v>
       </c>
       <c r="O5" t="n">
-        <v>7.6537</v>
+        <v>7.6621</v>
       </c>
       <c r="P5" t="n">
-        <v>7.423</v>
+        <v>7.4437</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0636</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04/02/2026</t>
+          <t>06/02/2026</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.0485</v>
+        <v>5.8758</v>
       </c>
       <c r="C6" t="n">
-        <v>6.1752</v>
+        <v>5.8655</v>
       </c>
       <c r="D6" t="n">
-        <v>6.2138</v>
+        <v>5.8575</v>
       </c>
       <c r="E6" t="n">
-        <v>6.2126</v>
+        <v>5.8473</v>
       </c>
       <c r="F6" t="n">
-        <v>6.1768</v>
+        <v>5.8483</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2425</v>
+        <v>5.8904</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6071</v>
+        <v>6.2252</v>
       </c>
       <c r="I6" t="n">
-        <v>6.975</v>
+        <v>6.6674</v>
       </c>
       <c r="J6" t="n">
-        <v>7.1747</v>
+        <v>6.9805</v>
       </c>
       <c r="K6" t="n">
-        <v>7.3685</v>
+        <v>7.268</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5298</v>
+        <v>7.5055</v>
       </c>
       <c r="M6" t="n">
-        <v>7.6375</v>
+        <v>7.6691</v>
       </c>
       <c r="N6" t="n">
-        <v>7.6704</v>
+        <v>7.7325</v>
       </c>
       <c r="O6" t="n">
-        <v>7.6064</v>
+        <v>7.6666</v>
       </c>
       <c r="P6" t="n">
-        <v>7.424</v>
+        <v>7.4436</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.065</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03/02/2026</t>
+          <t>05/02/2026</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.2435</v>
+        <v>5.9704</v>
       </c>
       <c r="C7" t="n">
-        <v>6.2098</v>
+        <v>5.9617</v>
       </c>
       <c r="D7" t="n">
-        <v>6.1871</v>
+        <v>5.9507</v>
       </c>
       <c r="E7" t="n">
-        <v>6.1729</v>
+        <v>5.9164</v>
       </c>
       <c r="F7" t="n">
-        <v>6.1855</v>
+        <v>5.8826</v>
       </c>
       <c r="G7" t="n">
-        <v>6.3067</v>
+        <v>5.9276</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6853</v>
+        <v>6.3089</v>
       </c>
       <c r="I7" t="n">
-        <v>6.9657</v>
+        <v>6.7766</v>
       </c>
       <c r="J7" t="n">
-        <v>7.1392</v>
+        <v>7.0617</v>
       </c>
       <c r="K7" t="n">
-        <v>7.3129</v>
+        <v>7.3252</v>
       </c>
       <c r="L7" t="n">
-        <v>7.4624</v>
+        <v>7.5412</v>
       </c>
       <c r="M7" t="n">
-        <v>7.569</v>
+        <v>7.6855</v>
       </c>
       <c r="N7" t="n">
-        <v>7.6145</v>
+        <v>7.7323</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07580000000000001</v>
+        <v>7.6537</v>
       </c>
       <c r="P7" t="n">
-        <v>7.4462</v>
+        <v>7.423</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0655</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02/02/2026</t>
+          <t>04/02/2026</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.2524</v>
+        <v>6.0485</v>
       </c>
       <c r="C8" t="n">
-        <v>6.2386</v>
+        <v>6.1752</v>
       </c>
       <c r="D8" t="n">
-        <v>6.2278</v>
+        <v>6.2138</v>
       </c>
       <c r="E8" t="n">
-        <v>6.211</v>
+        <v>6.2126</v>
       </c>
       <c r="F8" t="n">
-        <v>6.2029</v>
+        <v>6.1768</v>
       </c>
       <c r="G8" t="n">
-        <v>6.3027</v>
+        <v>6.2425</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6683</v>
+        <v>6.6071</v>
       </c>
       <c r="I8" t="n">
-        <v>6.9685</v>
+        <v>6.975</v>
       </c>
       <c r="J8" t="n">
-        <v>7.1426</v>
+        <v>7.1747</v>
       </c>
       <c r="K8" t="n">
-        <v>7.3163</v>
+        <v>7.3685</v>
       </c>
       <c r="L8" t="n">
-        <v>7.4646</v>
+        <v>7.5298</v>
       </c>
       <c r="M8" t="n">
-        <v>7.5687</v>
+        <v>7.6375</v>
       </c>
       <c r="N8" t="n">
-        <v>7.6099</v>
+        <v>7.6704</v>
       </c>
       <c r="O8" t="n">
-        <v>7.5689</v>
+        <v>7.6064</v>
       </c>
       <c r="P8" t="n">
-        <v>7.4264</v>
+        <v>7.424</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06560000000000001</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/01/2026</t>
+          <t>03/02/2026</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.2814</v>
+        <v>6.2435</v>
       </c>
       <c r="C9" t="n">
-        <v>6.2573</v>
+        <v>6.2098</v>
       </c>
       <c r="D9" t="n">
-        <v>6.2377</v>
+        <v>6.1871</v>
       </c>
       <c r="E9" t="n">
-        <v>6.2065</v>
+        <v>6.1729</v>
       </c>
       <c r="F9" t="n">
-        <v>6.1996</v>
+        <v>6.1855</v>
       </c>
       <c r="G9" t="n">
-        <v>6.3007</v>
+        <v>6.3067</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6568</v>
+        <v>6.6853</v>
       </c>
       <c r="I9" t="n">
-        <v>6.9412</v>
+        <v>6.9657</v>
       </c>
       <c r="J9" t="n">
-        <v>7.1111</v>
+        <v>7.1392</v>
       </c>
       <c r="K9" t="n">
-        <v>7.2824</v>
+        <v>7.3129</v>
       </c>
       <c r="L9" t="n">
-        <v>7.4313</v>
+        <v>7.4624</v>
       </c>
       <c r="M9" t="n">
-        <v>7.5399</v>
+        <v>7.569</v>
       </c>
       <c r="N9" t="n">
-        <v>7.591</v>
+        <v>7.6145</v>
       </c>
       <c r="O9" t="n">
-        <v>7.5662</v>
+        <v>7.58</v>
       </c>
       <c r="P9" t="n">
-        <v>7.4471</v>
+        <v>7.4462</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06569999999999999</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29/01/2026</t>
+          <t>02/02/2026</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.2305</v>
+        <v>6.2524</v>
       </c>
       <c r="C10" t="n">
-        <v>6.3149</v>
+        <v>6.2386</v>
       </c>
       <c r="D10" t="n">
-        <v>6.374</v>
+        <v>6.2278</v>
       </c>
       <c r="E10" t="n">
-        <v>6.3992</v>
+        <v>6.211</v>
       </c>
       <c r="F10" t="n">
-        <v>6.2965</v>
+        <v>6.2029</v>
       </c>
       <c r="G10" t="n">
-        <v>6.3045</v>
+        <v>6.3027</v>
       </c>
       <c r="H10" t="n">
-        <v>6.6327</v>
+        <v>6.6683</v>
       </c>
       <c r="I10" t="n">
-        <v>7.0319</v>
+        <v>6.9685</v>
       </c>
       <c r="J10" t="n">
-        <v>7.1872</v>
+        <v>7.1426</v>
       </c>
       <c r="K10" t="n">
-        <v>7.3445</v>
+        <v>7.3163</v>
       </c>
       <c r="L10" t="n">
-        <v>7.4776</v>
+        <v>7.4646</v>
       </c>
       <c r="M10" t="n">
-        <v>7.5673</v>
+        <v>7.5687</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5951</v>
+        <v>7.6099</v>
       </c>
       <c r="O10" t="n">
-        <v>7.5421</v>
+        <v>7.5689</v>
       </c>
       <c r="P10" t="n">
-        <v>7.3899</v>
+        <v>7.4264</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.06619999999999999</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>28/01/2026</t>
+          <t>30/01/2026</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.3578</v>
+        <v>6.2814</v>
       </c>
       <c r="C11" t="n">
-        <v>6.428</v>
+        <v>6.2573</v>
       </c>
       <c r="D11" t="n">
-        <v>6.475</v>
+        <v>6.2377</v>
       </c>
       <c r="E11" t="n">
-        <v>6.477</v>
+        <v>6.2065</v>
       </c>
       <c r="F11" t="n">
-        <v>6.3632</v>
+        <v>6.1996</v>
       </c>
       <c r="G11" t="n">
-        <v>6.3855</v>
+        <v>6.3007</v>
       </c>
       <c r="H11" t="n">
-        <v>6.7224</v>
+        <v>6.6568</v>
       </c>
       <c r="I11" t="n">
-        <v>7.0802</v>
+        <v>6.9412</v>
       </c>
       <c r="J11" t="n">
-        <v>7.1905</v>
+        <v>7.1111</v>
       </c>
       <c r="K11" t="n">
-        <v>7.3128</v>
+        <v>7.2824</v>
       </c>
       <c r="L11" t="n">
-        <v>7.4225</v>
+        <v>7.4313</v>
       </c>
       <c r="M11" t="n">
-        <v>7.5032</v>
+        <v>7.5399</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5402</v>
+        <v>7.591</v>
       </c>
       <c r="O11" t="n">
-        <v>7.5189</v>
+        <v>7.5662</v>
       </c>
       <c r="P11" t="n">
-        <v>7.4242</v>
+        <v>7.4471</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0668</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27/01/2026</t>
+          <t>29/01/2026</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.3304</v>
+        <v>6.2305</v>
       </c>
       <c r="C12" t="n">
-        <v>6.3395</v>
+        <v>6.3149</v>
       </c>
       <c r="D12" t="n">
-        <v>6.3462</v>
+        <v>6.374</v>
       </c>
       <c r="E12" t="n">
-        <v>6.3514</v>
+        <v>6.3992</v>
       </c>
       <c r="F12" t="n">
-        <v>6.3333</v>
+        <v>6.2965</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4316</v>
+        <v>6.3045</v>
       </c>
       <c r="H12" t="n">
-        <v>6.7847</v>
+        <v>6.6327</v>
       </c>
       <c r="I12" t="n">
-        <v>7.075</v>
+        <v>7.0319</v>
       </c>
       <c r="J12" t="n">
-        <v>7.187</v>
+        <v>7.1872</v>
       </c>
       <c r="K12" t="n">
-        <v>7.3086</v>
+        <v>7.3445</v>
       </c>
       <c r="L12" t="n">
-        <v>7.4141</v>
+        <v>7.4776</v>
       </c>
       <c r="M12" t="n">
-        <v>7.4858</v>
+        <v>7.5673</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5079</v>
+        <v>7.5951</v>
       </c>
       <c r="O12" t="n">
-        <v>7.4646</v>
+        <v>7.5421</v>
       </c>
       <c r="P12" t="n">
-        <v>7.3404</v>
+        <v>7.3899</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0664</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26/01/2026</t>
+          <t>28/01/2026</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.4332</v>
+        <v>6.3578</v>
       </c>
       <c r="C13" t="n">
-        <v>6.4112</v>
+        <v>6.428</v>
       </c>
       <c r="D13" t="n">
-        <v>6.391</v>
+        <v>6.475</v>
       </c>
       <c r="E13" t="n">
-        <v>6.3418</v>
+        <v>6.477</v>
       </c>
       <c r="F13" t="n">
-        <v>6.3105</v>
+        <v>6.3632</v>
       </c>
       <c r="G13" t="n">
-        <v>6.4555</v>
+        <v>6.3855</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898</v>
+        <v>6.7224</v>
       </c>
       <c r="I13" t="n">
-        <v>7.1463</v>
+        <v>7.0802</v>
       </c>
       <c r="J13" t="n">
-        <v>7.2503</v>
+        <v>7.1905</v>
       </c>
       <c r="K13" t="n">
-        <v>7.3634</v>
+        <v>7.3128</v>
       </c>
       <c r="L13" t="n">
-        <v>7.4576</v>
+        <v>7.4225</v>
       </c>
       <c r="M13" t="n">
-        <v>7.514</v>
+        <v>7.5032</v>
       </c>
       <c r="N13" t="n">
-        <v>7.5154</v>
+        <v>7.5402</v>
       </c>
       <c r="O13" t="n">
-        <v>7.4452</v>
+        <v>7.5189</v>
       </c>
       <c r="P13" t="n">
-        <v>7.2873</v>
+        <v>7.4242</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0669</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>23/01/2026</t>
+          <t>27/01/2026</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.766</v>
+        <v>6.3304</v>
       </c>
       <c r="C14" t="n">
-        <v>6.641</v>
+        <v>6.3395</v>
       </c>
       <c r="D14" t="n">
-        <v>6.547</v>
+        <v>6.3462</v>
       </c>
       <c r="E14" t="n">
-        <v>6.4509</v>
+        <v>6.3514</v>
       </c>
       <c r="F14" t="n">
-        <v>6.515</v>
+        <v>6.3333</v>
       </c>
       <c r="G14" t="n">
-        <v>6.7243</v>
+        <v>6.4316</v>
       </c>
       <c r="H14" t="n">
-        <v>7.0994</v>
+        <v>6.7847</v>
       </c>
       <c r="I14" t="n">
-        <v>7.1659</v>
+        <v>7.075</v>
       </c>
       <c r="J14" t="n">
-        <v>7.2509</v>
+        <v>7.187</v>
       </c>
       <c r="K14" t="n">
-        <v>7.3518</v>
+        <v>7.3086</v>
       </c>
       <c r="L14" t="n">
-        <v>7.4427</v>
+        <v>7.4141</v>
       </c>
       <c r="M14" t="n">
-        <v>7.5072</v>
+        <v>7.4858</v>
       </c>
       <c r="N14" t="n">
-        <v>7.531</v>
+        <v>7.5079</v>
       </c>
       <c r="O14" t="n">
-        <v>7.5004</v>
+        <v>7.4646</v>
       </c>
       <c r="P14" t="n">
-        <v>7.4013</v>
+        <v>7.3404</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.06850000000000001</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>22/01/2026</t>
+          <t>26/01/2026</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.0104</v>
+        <v>6.4332</v>
       </c>
       <c r="C15" t="n">
-        <v>7.0595</v>
+        <v>6.4112</v>
       </c>
       <c r="D15" t="n">
-        <v>7.051</v>
+        <v>6.391</v>
       </c>
       <c r="E15" t="n">
-        <v>6.9746</v>
+        <v>6.3418</v>
       </c>
       <c r="F15" t="n">
-        <v>6.8926</v>
+        <v>6.3105</v>
       </c>
       <c r="G15" t="n">
-        <v>6.881</v>
+        <v>6.4555</v>
       </c>
       <c r="H15" t="n">
-        <v>7.0098</v>
+        <v>6.898</v>
       </c>
       <c r="I15" t="n">
-        <v>7.1695</v>
+        <v>7.1463</v>
       </c>
       <c r="J15" t="n">
-        <v>7.2699</v>
+        <v>7.2503</v>
       </c>
       <c r="K15" t="n">
-        <v>7.3836</v>
+        <v>7.3634</v>
       </c>
       <c r="L15" t="n">
-        <v>7.4848</v>
+        <v>7.4576</v>
       </c>
       <c r="M15" t="n">
-        <v>7.5564</v>
+        <v>7.514</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5834</v>
+        <v>7.5154</v>
       </c>
       <c r="O15" t="n">
-        <v>7.5507</v>
+        <v>7.4452</v>
       </c>
       <c r="P15" t="n">
-        <v>7.4433</v>
+        <v>7.2873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0708</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21/01/2026</t>
+          <t>23/01/2026</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.0441</v>
+        <v>6.766</v>
       </c>
       <c r="C16" t="n">
-        <v>7.0152</v>
+        <v>6.641</v>
       </c>
       <c r="D16" t="n">
-        <v>7.0045</v>
+        <v>6.547</v>
       </c>
       <c r="E16" t="n">
-        <v>6.994</v>
+        <v>6.4509</v>
       </c>
       <c r="F16" t="n">
-        <v>6.9953</v>
+        <v>6.515</v>
       </c>
       <c r="G16" t="n">
-        <v>7.051</v>
+        <v>6.7243</v>
       </c>
       <c r="H16" t="n">
-        <v>7.1633</v>
+        <v>7.0994</v>
       </c>
       <c r="I16" t="n">
-        <v>7.1827</v>
+        <v>7.1659</v>
       </c>
       <c r="J16" t="n">
-        <v>7.2437</v>
+        <v>7.2509</v>
       </c>
       <c r="K16" t="n">
-        <v>7.3259</v>
+        <v>7.3518</v>
       </c>
       <c r="L16" t="n">
-        <v>7.4044</v>
+        <v>7.4427</v>
       </c>
       <c r="M16" t="n">
-        <v>7.4642</v>
+        <v>7.5072</v>
       </c>
       <c r="N16" t="n">
-        <v>7.4931</v>
+        <v>7.531</v>
       </c>
       <c r="O16" t="n">
-        <v>7.4795</v>
+        <v>7.5004</v>
       </c>
       <c r="P16" t="n">
-        <v>7.4115</v>
+        <v>7.4013</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07099999999999999</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20/01/2026</t>
+          <t>22/01/2026</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.1692</v>
+        <v>7.0104</v>
       </c>
       <c r="C17" t="n">
-        <v>7.1974</v>
+        <v>7.0595</v>
       </c>
       <c r="D17" t="n">
-        <v>7.1934</v>
+        <v>7.051</v>
       </c>
       <c r="E17" t="n">
-        <v>7.1545</v>
+        <v>6.9746</v>
       </c>
       <c r="F17" t="n">
-        <v>7.1157</v>
+        <v>6.8926</v>
       </c>
       <c r="G17" t="n">
-        <v>7.1414</v>
+        <v>6.881</v>
       </c>
       <c r="H17" t="n">
-        <v>7.2287</v>
+        <v>7.0098</v>
       </c>
       <c r="I17" t="n">
-        <v>7.2518</v>
+        <v>7.1695</v>
       </c>
       <c r="J17" t="n">
-        <v>7.2925</v>
+        <v>7.2699</v>
       </c>
       <c r="K17" t="n">
-        <v>7.3587</v>
+        <v>7.3836</v>
       </c>
       <c r="L17" t="n">
-        <v>7.4256</v>
+        <v>7.4848</v>
       </c>
       <c r="M17" t="n">
-        <v>7.4787</v>
+        <v>7.5564</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5069</v>
+        <v>7.5834</v>
       </c>
       <c r="O17" t="n">
-        <v>7.4999</v>
+        <v>7.5507</v>
       </c>
       <c r="P17" t="n">
-        <v>7.4472</v>
+        <v>7.4433</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.07190000000000001</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19/01/2026</t>
+          <t>21/01/2026</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.3256</v>
+        <v>7.0441</v>
       </c>
       <c r="C18" t="n">
-        <v>7.2159</v>
+        <v>7.0152</v>
       </c>
       <c r="D18" t="n">
-        <v>7.1458</v>
+        <v>7.0045</v>
       </c>
       <c r="E18" t="n">
-        <v>7.0876</v>
+        <v>6.994</v>
       </c>
       <c r="F18" t="n">
-        <v>7.0928</v>
+        <v>6.9953</v>
       </c>
       <c r="G18" t="n">
-        <v>7.1649</v>
+        <v>7.051</v>
       </c>
       <c r="H18" t="n">
-        <v>7.2783</v>
+        <v>7.1633</v>
       </c>
       <c r="I18" t="n">
-        <v>7.2539</v>
+        <v>7.1827</v>
       </c>
       <c r="J18" t="n">
-        <v>7.297</v>
+        <v>7.2437</v>
       </c>
       <c r="K18" t="n">
-        <v>7.365</v>
+        <v>7.3259</v>
       </c>
       <c r="L18" t="n">
-        <v>7.4328</v>
+        <v>7.4044</v>
       </c>
       <c r="M18" t="n">
-        <v>7.4859</v>
+        <v>7.4642</v>
       </c>
       <c r="N18" t="n">
-        <v>7.5128</v>
+        <v>7.4931</v>
       </c>
       <c r="O18" t="n">
-        <v>7.5028</v>
+        <v>7.4795</v>
       </c>
       <c r="P18" t="n">
-        <v>7.4454</v>
+        <v>7.4115</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0723</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16/01/2026</t>
+          <t>20/01/2026</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.179</v>
+        <v>7.1692</v>
       </c>
       <c r="C19" t="n">
-        <v>7.1981</v>
+        <v>7.1974</v>
       </c>
       <c r="D19" t="n">
-        <v>7.1884</v>
+        <v>7.1934</v>
       </c>
       <c r="E19" t="n">
-        <v>7.1341</v>
+        <v>7.1545</v>
       </c>
       <c r="F19" t="n">
-        <v>7.0812</v>
+        <v>7.1157</v>
       </c>
       <c r="G19" t="n">
-        <v>7.1206</v>
+        <v>7.1414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.2621</v>
+        <v>7.2287</v>
       </c>
       <c r="I19" t="n">
-        <v>7.3153</v>
+        <v>7.2518</v>
       </c>
       <c r="J19" t="n">
-        <v>7.348</v>
+        <v>7.2925</v>
       </c>
       <c r="K19" t="n">
-        <v>7.4066</v>
+        <v>7.3587</v>
       </c>
       <c r="L19" t="n">
-        <v>7.4646</v>
+        <v>7.4256</v>
       </c>
       <c r="M19" t="n">
+        <v>7.4787</v>
+      </c>
+      <c r="N19" t="n">
         <v>7.5069</v>
       </c>
-      <c r="N19" t="n">
-        <v>7.5216</v>
-      </c>
       <c r="O19" t="n">
-        <v>7.4978</v>
+        <v>7.4999</v>
       </c>
       <c r="P19" t="n">
-        <v>7.4247</v>
+        <v>7.4472</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.07199999999999999</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>19/01/2026</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.1055</v>
+        <v>7.3256</v>
       </c>
       <c r="C20" t="n">
-        <v>7.2285</v>
+        <v>7.2159</v>
       </c>
       <c r="D20" t="n">
-        <v>7.2449</v>
+        <v>7.1458</v>
       </c>
       <c r="E20" t="n">
-        <v>7.1864</v>
+        <v>7.0876</v>
       </c>
       <c r="F20" t="n">
-        <v>7.1051</v>
+        <v>7.0928</v>
       </c>
       <c r="G20" t="n">
-        <v>7.1157</v>
+        <v>7.1649</v>
       </c>
       <c r="H20" t="n">
-        <v>7.2389</v>
+        <v>7.2783</v>
       </c>
       <c r="I20" t="n">
-        <v>7.3172</v>
+        <v>7.2539</v>
       </c>
       <c r="J20" t="n">
-        <v>7.3493</v>
+        <v>7.297</v>
       </c>
       <c r="K20" t="n">
-        <v>7.4072</v>
+        <v>7.365</v>
       </c>
       <c r="L20" t="n">
-        <v>7.4648</v>
+        <v>7.4328</v>
       </c>
       <c r="M20" t="n">
-        <v>7.5069</v>
+        <v>7.4859</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5215</v>
+        <v>7.5128</v>
       </c>
       <c r="O20" t="n">
-        <v>7.4978</v>
+        <v>7.5028</v>
       </c>
       <c r="P20" t="n">
-        <v>7.4251</v>
+        <v>7.4454</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.07190000000000001</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>14/01/2026</t>
+          <t>16/01/2026</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.1176</v>
+        <v>7.179</v>
       </c>
       <c r="C21" t="n">
-        <v>7.2642</v>
+        <v>7.1981</v>
       </c>
       <c r="D21" t="n">
-        <v>7.3181</v>
+        <v>7.1884</v>
       </c>
       <c r="E21" t="n">
-        <v>7.2689</v>
+        <v>7.1341</v>
       </c>
       <c r="F21" t="n">
-        <v>7.1646</v>
+        <v>7.0812</v>
       </c>
       <c r="G21" t="n">
-        <v>7.1458</v>
+        <v>7.1206</v>
       </c>
       <c r="H21" t="n">
-        <v>7.2467</v>
+        <v>7.2621</v>
       </c>
       <c r="I21" t="n">
-        <v>7.3493</v>
+        <v>7.3153</v>
       </c>
       <c r="J21" t="n">
-        <v>7.3861</v>
+        <v>7.348</v>
       </c>
       <c r="K21" t="n">
-        <v>7.4479</v>
+        <v>7.4066</v>
       </c>
       <c r="L21" t="n">
-        <v>7.508</v>
+        <v>7.4646</v>
       </c>
       <c r="M21" t="n">
-        <v>7.5508</v>
+        <v>7.5069</v>
       </c>
       <c r="N21" t="n">
-        <v>7.5639</v>
+        <v>7.5216</v>
       </c>
       <c r="O21" t="n">
-        <v>7.5356</v>
+        <v>7.4978</v>
       </c>
       <c r="P21" t="n">
-        <v>7.4548</v>
+        <v>7.4247</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0723</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13/01/2026</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.3627</v>
+        <v>7.1055</v>
       </c>
       <c r="C22" t="n">
-        <v>7.4309</v>
+        <v>7.2285</v>
       </c>
       <c r="D22" t="n">
-        <v>7.4179</v>
+        <v>7.2449</v>
       </c>
       <c r="E22" t="n">
-        <v>7.3008</v>
+        <v>7.1864</v>
       </c>
       <c r="F22" t="n">
-        <v>7.1743</v>
+        <v>7.1051</v>
       </c>
       <c r="G22" t="n">
-        <v>7.1484</v>
+        <v>7.1157</v>
       </c>
       <c r="H22" t="n">
-        <v>7.2512</v>
+        <v>7.2389</v>
       </c>
       <c r="I22" t="n">
-        <v>7.3574</v>
+        <v>7.3172</v>
       </c>
       <c r="J22" t="n">
-        <v>7.3903</v>
+        <v>7.3493</v>
       </c>
       <c r="K22" t="n">
-        <v>7.4489</v>
+        <v>7.4072</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5066</v>
+        <v>7.4648</v>
       </c>
       <c r="M22" t="n">
-        <v>7.5476</v>
+        <v>7.5069</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5597</v>
+        <v>7.5215</v>
       </c>
       <c r="O22" t="n">
-        <v>7.5317</v>
+        <v>7.4978</v>
       </c>
       <c r="P22" t="n">
-        <v>7.4525</v>
+        <v>7.4251</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0731</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12/01/2026</t>
+          <t>14/01/2026</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.4245</v>
+        <v>7.1176</v>
       </c>
       <c r="C23" t="n">
-        <v>7.4181</v>
+        <v>7.2642</v>
       </c>
       <c r="D23" t="n">
-        <v>7.3883</v>
+        <v>7.3181</v>
       </c>
       <c r="E23" t="n">
-        <v>7.2842</v>
+        <v>7.2689</v>
       </c>
       <c r="F23" t="n">
-        <v>7.1888</v>
+        <v>7.1646</v>
       </c>
       <c r="G23" t="n">
-        <v>7.1957</v>
+        <v>7.1458</v>
       </c>
       <c r="H23" t="n">
-        <v>7.3335</v>
+        <v>7.2467</v>
       </c>
       <c r="I23" t="n">
-        <v>7.4294</v>
+        <v>7.3493</v>
       </c>
       <c r="J23" t="n">
-        <v>7.4727</v>
+        <v>7.3861</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07539999999999999</v>
+        <v>7.4479</v>
       </c>
       <c r="L23" t="n">
-        <v>7.6033</v>
+        <v>7.508</v>
       </c>
       <c r="M23" t="n">
-        <v>7.6459</v>
+        <v>7.5508</v>
       </c>
       <c r="N23" t="n">
-        <v>7.6542</v>
+        <v>7.5639</v>
       </c>
       <c r="O23" t="n">
-        <v>7.6157</v>
+        <v>7.5356</v>
       </c>
       <c r="P23" t="n">
-        <v>7.5178</v>
+        <v>7.4548</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07340000000000001</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>09/01/2026</t>
+          <t>13/01/2026</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.1943</v>
+        <v>7.3627</v>
       </c>
       <c r="C24" t="n">
-        <v>7.1996</v>
+        <v>7.4309</v>
       </c>
       <c r="D24" t="n">
-        <v>7.1983</v>
+        <v>7.4179</v>
       </c>
       <c r="E24" t="n">
-        <v>7.1718</v>
+        <v>7.3008</v>
       </c>
       <c r="F24" t="n">
-        <v>7.1442</v>
+        <v>7.1743</v>
       </c>
       <c r="G24" t="n">
-        <v>7.1923</v>
+        <v>7.1484</v>
       </c>
       <c r="H24" t="n">
-        <v>7.3404</v>
+        <v>7.2512</v>
       </c>
       <c r="I24" t="n">
-        <v>7.4013</v>
+        <v>7.3574</v>
       </c>
       <c r="J24" t="n">
-        <v>7.4643</v>
+        <v>7.3903</v>
       </c>
       <c r="K24" t="n">
-        <v>7.5477</v>
+        <v>7.4489</v>
       </c>
       <c r="L24" t="n">
-        <v>7.6236</v>
+        <v>7.5066</v>
       </c>
       <c r="M24" t="n">
-        <v>7.6745</v>
+        <v>7.5476</v>
       </c>
       <c r="N24" t="n">
-        <v>7.6859</v>
+        <v>7.5597</v>
       </c>
       <c r="O24" t="n">
-        <v>7.6437</v>
+        <v>7.5317</v>
       </c>
       <c r="P24" t="n">
-        <v>7.5343</v>
+        <v>7.4525</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0727</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>08/01/2026</t>
+          <t>12/01/2026</t>
         </is>
       </c>
       <c r="B25" t="n">
+        <v>7.4245</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.4181</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.3883</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.2842</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7.1888</v>
+      </c>
+      <c r="G25" t="n">
         <v>7.1957</v>
       </c>
-      <c r="C25" t="n">
-        <v>7.1636</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7.1464</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7.1323</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7.1363</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.2488</v>
-      </c>
       <c r="H25" t="n">
-        <v>7.4668</v>
+        <v>7.3335</v>
       </c>
       <c r="I25" t="n">
-        <v>7.4798</v>
+        <v>7.4294</v>
       </c>
       <c r="J25" t="n">
-        <v>7.5037</v>
+        <v>7.4727</v>
       </c>
       <c r="K25" t="n">
-        <v>7.5566</v>
+        <v>7.54</v>
       </c>
       <c r="L25" t="n">
-        <v>7.6113</v>
+        <v>7.6033</v>
       </c>
       <c r="M25" t="n">
-        <v>7.6523</v>
+        <v>7.6459</v>
       </c>
       <c r="N25" t="n">
-        <v>7.6679</v>
+        <v>7.6542</v>
       </c>
       <c r="O25" t="n">
-        <v>7.6472</v>
+        <v>7.6157</v>
       </c>
       <c r="P25" t="n">
-        <v>7.5796</v>
+        <v>7.5178</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0727</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>07/01/2026</t>
+          <t>09/01/2026</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.3275</v>
+        <v>7.1943</v>
       </c>
       <c r="C26" t="n">
-        <v>7.3267</v>
+        <v>7.1996</v>
       </c>
       <c r="D26" t="n">
-        <v>7.3171</v>
+        <v>7.1983</v>
       </c>
       <c r="E26" t="n">
-        <v>7.2856</v>
+        <v>7.1718</v>
       </c>
       <c r="F26" t="n">
-        <v>7.2615</v>
+        <v>7.1442</v>
       </c>
       <c r="G26" t="n">
-        <v>7.3299</v>
+        <v>7.1923</v>
       </c>
       <c r="H26" t="n">
-        <v>7.4808</v>
+        <v>7.3404</v>
       </c>
       <c r="I26" t="n">
-        <v>7.4859</v>
+        <v>7.4013</v>
       </c>
       <c r="J26" t="n">
-        <v>7.5071</v>
+        <v>7.4643</v>
       </c>
       <c r="K26" t="n">
-        <v>7.5578</v>
+        <v>7.5477</v>
       </c>
       <c r="L26" t="n">
-        <v>7.6109</v>
+        <v>7.6236</v>
       </c>
       <c r="M26" t="n">
-        <v>7.6509</v>
+        <v>7.6745</v>
       </c>
       <c r="N26" t="n">
-        <v>7.6661</v>
+        <v>7.6859</v>
       </c>
       <c r="O26" t="n">
-        <v>7.646</v>
+        <v>7.6437</v>
       </c>
       <c r="P26" t="n">
-        <v>7.5799</v>
+        <v>7.5343</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.07340000000000001</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05/01/2026</t>
+          <t>08/01/2026</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.4212</v>
+        <v>7.1957</v>
       </c>
       <c r="C27" t="n">
-        <v>7.3941</v>
+        <v>7.1636</v>
       </c>
       <c r="D27" t="n">
-        <v>7.3743</v>
+        <v>7.1464</v>
       </c>
       <c r="E27" t="n">
-        <v>7.3451</v>
+        <v>7.1323</v>
       </c>
       <c r="F27" t="n">
-        <v>7.3349</v>
+        <v>7.1363</v>
       </c>
       <c r="G27" t="n">
-        <v>7.398</v>
+        <v>7.2488</v>
       </c>
       <c r="H27" t="n">
-        <v>7.509</v>
+        <v>7.4668</v>
       </c>
       <c r="I27" t="n">
-        <v>7.4797</v>
+        <v>7.4798</v>
       </c>
       <c r="J27" t="n">
-        <v>7.5047</v>
+        <v>7.5037</v>
       </c>
       <c r="K27" t="n">
-        <v>7.5583</v>
+        <v>7.5566</v>
       </c>
       <c r="L27" t="n">
-        <v>7.6136</v>
+        <v>7.6113</v>
       </c>
       <c r="M27" t="n">
-        <v>7.6549</v>
+        <v>7.6523</v>
       </c>
       <c r="N27" t="n">
-        <v>7.6702</v>
+        <v>7.6679</v>
       </c>
       <c r="O27" t="n">
-        <v>7.6488</v>
+        <v>7.6472</v>
       </c>
       <c r="P27" t="n">
-        <v>7.5798</v>
+        <v>7.5796</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0741</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>02/01/2026</t>
+          <t>07/01/2026</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.2046</v>
+        <v>7.3275</v>
       </c>
       <c r="C28" t="n">
-        <v>7.3281</v>
+        <v>7.3267</v>
       </c>
       <c r="D28" t="n">
-        <v>7.3605</v>
+        <v>7.3171</v>
       </c>
       <c r="E28" t="n">
-        <v>7.3646</v>
+        <v>7.2856</v>
       </c>
       <c r="F28" t="n">
-        <v>7.3476</v>
+        <v>7.2615</v>
       </c>
       <c r="G28" t="n">
-        <v>7.3883</v>
+        <v>7.3299</v>
       </c>
       <c r="H28" t="n">
-        <v>7.4806</v>
+        <v>7.4808</v>
       </c>
       <c r="I28" t="n">
-        <v>7.4785</v>
+        <v>7.4859</v>
       </c>
       <c r="J28" t="n">
-        <v>7.5188</v>
+        <v>7.5071</v>
       </c>
       <c r="K28" t="n">
-        <v>7.5843</v>
+        <v>7.5578</v>
       </c>
       <c r="L28" t="n">
-        <v>7.647</v>
+        <v>7.6109</v>
       </c>
       <c r="M28" t="n">
-        <v>7.6901</v>
+        <v>7.6509</v>
       </c>
       <c r="N28" t="n">
-        <v>7.7003</v>
+        <v>7.6661</v>
       </c>
       <c r="O28" t="n">
-        <v>7.665</v>
+        <v>7.646</v>
       </c>
       <c r="P28" t="n">
-        <v>7.572</v>
+        <v>7.5799</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.07340000000000001</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/12/2025</t>
+          <t>05/01/2026</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.1646</v>
+        <v>7.4212</v>
       </c>
       <c r="C29" t="n">
-        <v>7.2198</v>
+        <v>7.3941</v>
       </c>
       <c r="D29" t="n">
-        <v>7.2425</v>
+        <v>7.3743</v>
       </c>
       <c r="E29" t="n">
-        <v>7.2818</v>
+        <v>7.3451</v>
       </c>
       <c r="F29" t="n">
-        <v>7.3165</v>
+        <v>7.3349</v>
       </c>
       <c r="G29" t="n">
-        <v>7.4108</v>
+        <v>7.398</v>
       </c>
       <c r="H29" t="n">
-        <v>7.5437</v>
+        <v>7.509</v>
       </c>
       <c r="I29" t="n">
-        <v>7.5009</v>
+        <v>7.4797</v>
       </c>
       <c r="J29" t="n">
-        <v>7.5381</v>
+        <v>7.5047</v>
       </c>
       <c r="K29" t="n">
-        <v>7.6026</v>
+        <v>7.5583</v>
       </c>
       <c r="L29" t="n">
-        <v>7.6675</v>
+        <v>7.6136</v>
       </c>
       <c r="M29" t="n">
-        <v>7.7167</v>
+        <v>7.6549</v>
       </c>
       <c r="N29" t="n">
-        <v>7.738</v>
+        <v>7.6702</v>
       </c>
       <c r="O29" t="n">
-        <v>7.7198</v>
+        <v>7.6488</v>
       </c>
       <c r="P29" t="n">
-        <v>7.6505</v>
+        <v>7.5798</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0731</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
+          <t>02/01/2026</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.4086</v>
+        <v>7.2046</v>
       </c>
       <c r="C30" t="n">
-        <v>7.4967</v>
+        <v>7.3281</v>
       </c>
       <c r="D30" t="n">
-        <v>7.5124</v>
+        <v>7.3605</v>
       </c>
       <c r="E30" t="n">
-        <v>7.4943</v>
+        <v>7.3646</v>
       </c>
       <c r="F30" t="n">
-        <v>7.4656</v>
+        <v>7.3476</v>
       </c>
       <c r="G30" t="n">
-        <v>7.4857</v>
+        <v>7.3883</v>
       </c>
       <c r="H30" t="n">
-        <v>7.5367</v>
+        <v>7.4806</v>
       </c>
       <c r="I30" t="n">
-        <v>7.5153</v>
+        <v>7.4785</v>
       </c>
       <c r="J30" t="n">
-        <v>7.5529</v>
+        <v>7.5188</v>
       </c>
       <c r="K30" t="n">
-        <v>7.6174</v>
+        <v>7.5843</v>
       </c>
       <c r="L30" t="n">
-        <v>7.6812</v>
+        <v>7.647</v>
       </c>
       <c r="M30" t="n">
-        <v>7.728</v>
+        <v>7.6901</v>
       </c>
       <c r="N30" t="n">
-        <v>7.7449</v>
+        <v>7.7003</v>
       </c>
       <c r="O30" t="n">
-        <v>7.7201</v>
+        <v>7.665</v>
       </c>
       <c r="P30" t="n">
-        <v>7.6417</v>
+        <v>7.572</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0741</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>26/12/2025</t>
+          <t>30/12/2025</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.4052</v>
+        <v>7.1646</v>
       </c>
       <c r="C31" t="n">
-        <v>7.5124</v>
+        <v>7.2198</v>
       </c>
       <c r="D31" t="n">
-        <v>7.5329</v>
+        <v>7.2425</v>
       </c>
       <c r="E31" t="n">
-        <v>7.5154</v>
+        <v>7.2818</v>
       </c>
       <c r="F31" t="n">
-        <v>7.4831</v>
+        <v>7.3165</v>
       </c>
       <c r="G31" t="n">
-        <v>7.4935</v>
+        <v>7.4108</v>
       </c>
       <c r="H31" t="n">
-        <v>7.5351</v>
+        <v>7.5437</v>
       </c>
       <c r="I31" t="n">
-        <v>7.5232</v>
+        <v>7.5009</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0757</v>
+        <v>7.5381</v>
       </c>
       <c r="K31" t="n">
-        <v>7.6414</v>
+        <v>7.6026</v>
       </c>
       <c r="L31" t="n">
-        <v>7.7091</v>
+        <v>7.6675</v>
       </c>
       <c r="M31" t="n">
-        <v>7.7559</v>
+        <v>7.7167</v>
       </c>
       <c r="N31" t="n">
-        <v>7.7681</v>
+        <v>7.738</v>
       </c>
       <c r="O31" t="n">
-        <v>7.7324</v>
+        <v>7.7198</v>
       </c>
       <c r="P31" t="n">
-        <v>7.6361</v>
+        <v>7.6505</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0745</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>24/12/2025</t>
+          <t>29/12/2025</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.7038</v>
+        <v>7.4086</v>
       </c>
       <c r="C32" t="n">
-        <v>7.6942</v>
+        <v>7.4967</v>
       </c>
       <c r="D32" t="n">
-        <v>7.669</v>
+        <v>7.5124</v>
       </c>
       <c r="E32" t="n">
-        <v>7.5873</v>
+        <v>7.4943</v>
       </c>
       <c r="F32" t="n">
-        <v>7.5169</v>
+        <v>7.4656</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5028</v>
+        <v>7.4857</v>
       </c>
       <c r="H32" t="n">
-        <v>7.5312</v>
+        <v>7.5367</v>
       </c>
       <c r="I32" t="n">
-        <v>7.5325</v>
+        <v>7.5153</v>
       </c>
       <c r="J32" t="n">
-        <v>7.5718</v>
+        <v>7.5529</v>
       </c>
       <c r="K32" t="n">
-        <v>7.639</v>
+        <v>7.6174</v>
       </c>
       <c r="L32" t="n">
-        <v>7.7071</v>
+        <v>7.6812</v>
       </c>
       <c r="M32" t="n">
-        <v>7.7604</v>
+        <v>7.728</v>
       </c>
       <c r="N32" t="n">
-        <v>7.7866</v>
+        <v>7.7449</v>
       </c>
       <c r="O32" t="n">
-        <v>7.774</v>
+        <v>7.7201</v>
       </c>
       <c r="P32" t="n">
-        <v>7.7113</v>
+        <v>7.6417</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0757</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>23/12/2025</t>
+          <t>26/12/2025</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.6959</v>
+        <v>7.4052</v>
       </c>
       <c r="C33" t="n">
-        <v>7.6719</v>
+        <v>7.5124</v>
       </c>
       <c r="D33" t="n">
-        <v>7.6482</v>
+        <v>7.5329</v>
       </c>
       <c r="E33" t="n">
-        <v>7.5857</v>
+        <v>7.5154</v>
       </c>
       <c r="F33" t="n">
-        <v>7.5378</v>
+        <v>7.4831</v>
       </c>
       <c r="G33" t="n">
-        <v>7.5389</v>
+        <v>7.4935</v>
       </c>
       <c r="H33" t="n">
-        <v>7.564</v>
+        <v>7.5351</v>
       </c>
       <c r="I33" t="n">
-        <v>7.5375</v>
+        <v>7.5232</v>
       </c>
       <c r="J33" t="n">
-        <v>7.5745</v>
+        <v>7.57</v>
       </c>
       <c r="K33" t="n">
-        <v>7.6398</v>
+        <v>7.6414</v>
       </c>
       <c r="L33" t="n">
-        <v>7.7065</v>
+        <v>7.7091</v>
       </c>
       <c r="M33" t="n">
-        <v>7.759</v>
+        <v>7.7559</v>
       </c>
       <c r="N33" t="n">
-        <v>7.7849</v>
+        <v>7.7681</v>
       </c>
       <c r="O33" t="n">
-        <v>7.773</v>
+        <v>7.7324</v>
       </c>
       <c r="P33" t="n">
-        <v>7.7118</v>
+        <v>7.6361</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0759</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22/12/2025</t>
+          <t>24/12/2025</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.8063</v>
+        <v>7.7038</v>
       </c>
       <c r="C34" t="n">
-        <v>7.7976</v>
+        <v>7.6942</v>
       </c>
       <c r="D34" t="n">
-        <v>7.7704</v>
+        <v>7.669</v>
       </c>
       <c r="E34" t="n">
-        <v>7.6803</v>
+        <v>7.5873</v>
       </c>
       <c r="F34" t="n">
-        <v>7.602</v>
+        <v>7.5169</v>
       </c>
       <c r="G34" t="n">
-        <v>7.5713</v>
+        <v>7.5028</v>
       </c>
       <c r="H34" t="n">
-        <v>7.5618</v>
+        <v>7.5312</v>
       </c>
       <c r="I34" t="n">
-        <v>7.542</v>
+        <v>7.5325</v>
       </c>
       <c r="J34" t="n">
-        <v>7.5739</v>
+        <v>7.5718</v>
       </c>
       <c r="K34" t="n">
-        <v>7.636</v>
+        <v>7.639</v>
       </c>
       <c r="L34" t="n">
-        <v>7.702</v>
+        <v>7.7071</v>
       </c>
       <c r="M34" t="n">
-        <v>7.757</v>
+        <v>7.7604</v>
       </c>
       <c r="N34" t="n">
-        <v>7.7895</v>
+        <v>7.7866</v>
       </c>
       <c r="O34" t="n">
-        <v>7.789</v>
+        <v>7.774</v>
       </c>
       <c r="P34" t="n">
-        <v>7.7452</v>
+        <v>7.7113</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0764</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>19/12/2025</t>
+          <t>23/12/2025</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.6963</v>
+        <v>7.6959</v>
       </c>
       <c r="C35" t="n">
-        <v>7.7121</v>
+        <v>7.6719</v>
       </c>
       <c r="D35" t="n">
-        <v>7.7091</v>
+        <v>7.6482</v>
       </c>
       <c r="E35" t="n">
-        <v>7.6885</v>
+        <v>7.5857</v>
       </c>
       <c r="F35" t="n">
-        <v>7.6746</v>
+        <v>7.5378</v>
       </c>
       <c r="G35" t="n">
-        <v>7.6856</v>
+        <v>7.5389</v>
       </c>
       <c r="H35" t="n">
-        <v>7.6657</v>
+        <v>7.564</v>
       </c>
       <c r="I35" t="n">
-        <v>7.5686</v>
+        <v>7.5375</v>
       </c>
       <c r="J35" t="n">
-        <v>7.5936</v>
+        <v>7.5745</v>
       </c>
       <c r="K35" t="n">
-        <v>7.6502</v>
+        <v>7.6398</v>
       </c>
       <c r="L35" t="n">
+        <v>7.7065</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7.759</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.7849</v>
+      </c>
+      <c r="O35" t="n">
+        <v>7.773</v>
+      </c>
+      <c r="P35" t="n">
         <v>7.7118</v>
       </c>
-      <c r="M35" t="n">
-        <v>7.7637</v>
-      </c>
-      <c r="N35" t="n">
-        <v>7.7948</v>
-      </c>
-      <c r="O35" t="n">
-        <v>7.7948</v>
-      </c>
-      <c r="P35" t="n">
-        <v>7.7539</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0.0762</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18/12/2025</t>
+          <t>22/12/2025</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.7449</v>
+        <v>7.8063</v>
       </c>
       <c r="C36" t="n">
-        <v>7.7872</v>
+        <v>7.7976</v>
       </c>
       <c r="D36" t="n">
-        <v>7.7847</v>
+        <v>7.7704</v>
       </c>
       <c r="E36" t="n">
-        <v>7.7412</v>
+        <v>7.6803</v>
       </c>
       <c r="F36" t="n">
-        <v>7.6986</v>
+        <v>7.602</v>
       </c>
       <c r="G36" t="n">
-        <v>7.6886</v>
+        <v>7.5713</v>
       </c>
       <c r="H36" t="n">
-        <v>7.6689</v>
+        <v>7.5618</v>
       </c>
       <c r="I36" t="n">
-        <v>7.6041</v>
+        <v>7.542</v>
       </c>
       <c r="J36" t="n">
-        <v>7.6325</v>
+        <v>7.5739</v>
       </c>
       <c r="K36" t="n">
-        <v>7.691</v>
+        <v>7.636</v>
       </c>
       <c r="L36" t="n">
-        <v>7.7523</v>
+        <v>7.702</v>
       </c>
       <c r="M36" t="n">
-        <v>7.8004</v>
+        <v>7.757</v>
       </c>
       <c r="N36" t="n">
-        <v>7.8234</v>
+        <v>7.7895</v>
       </c>
       <c r="O36" t="n">
-        <v>7.8101</v>
+        <v>7.789</v>
       </c>
       <c r="P36" t="n">
-        <v>7.7493</v>
+        <v>7.7452</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0766</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17/12/2025</t>
+          <t>19/12/2025</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.7904</v>
+        <v>7.6963</v>
       </c>
       <c r="C37" t="n">
-        <v>7.8251</v>
+        <v>7.7121</v>
       </c>
       <c r="D37" t="n">
-        <v>7.8174</v>
+        <v>7.7091</v>
       </c>
       <c r="E37" t="n">
-        <v>7.7615</v>
+        <v>7.6885</v>
       </c>
       <c r="F37" t="n">
-        <v>7.7083</v>
+        <v>7.6746</v>
       </c>
       <c r="G37" t="n">
-        <v>7.685</v>
+        <v>7.6856</v>
       </c>
       <c r="H37" t="n">
-        <v>7.6593</v>
+        <v>7.6657</v>
       </c>
       <c r="I37" t="n">
-        <v>7.6134</v>
+        <v>7.5686</v>
       </c>
       <c r="J37" t="n">
-        <v>7.6532</v>
+        <v>7.5936</v>
       </c>
       <c r="K37" t="n">
-        <v>7.7206</v>
+        <v>7.6502</v>
       </c>
       <c r="L37" t="n">
-        <v>7.7873</v>
+        <v>7.7118</v>
       </c>
       <c r="M37" t="n">
-        <v>7.8368</v>
+        <v>7.7637</v>
       </c>
       <c r="N37" t="n">
-        <v>7.8557</v>
+        <v>7.7948</v>
       </c>
       <c r="O37" t="n">
-        <v>7.8317</v>
+        <v>7.7948</v>
       </c>
       <c r="P37" t="n">
-        <v>7.7523</v>
+        <v>7.7539</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0769</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16/12/2025</t>
+          <t>18/12/2025</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.8054</v>
+        <v>7.7449</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07829999999999999</v>
+        <v>7.7872</v>
       </c>
       <c r="D38" t="n">
-        <v>7.8194</v>
+        <v>7.7847</v>
       </c>
       <c r="E38" t="n">
-        <v>7.7612</v>
+        <v>7.7412</v>
       </c>
       <c r="F38" t="n">
-        <v>7.7079</v>
+        <v>7.6986</v>
       </c>
       <c r="G38" t="n">
-        <v>7.7005</v>
+        <v>7.6886</v>
       </c>
       <c r="H38" t="n">
-        <v>7.7006</v>
+        <v>7.6689</v>
       </c>
       <c r="I38" t="n">
-        <v>7.6477</v>
+        <v>7.6041</v>
       </c>
       <c r="J38" t="n">
-        <v>7.671</v>
+        <v>7.6325</v>
       </c>
       <c r="K38" t="n">
-        <v>7.7254</v>
+        <v>7.691</v>
       </c>
       <c r="L38" t="n">
-        <v>7.7832</v>
+        <v>7.7523</v>
       </c>
       <c r="M38" t="n">
-        <v>7.8285</v>
+        <v>7.8004</v>
       </c>
       <c r="N38" t="n">
-        <v>7.8491</v>
+        <v>7.8234</v>
       </c>
       <c r="O38" t="n">
-        <v>7.8341</v>
+        <v>7.8101</v>
       </c>
       <c r="P38" t="n">
-        <v>7.7725</v>
+        <v>7.7493</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0771</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15/12/2025</t>
+          <t>17/12/2025</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.8856</v>
+        <v>7.7904</v>
       </c>
       <c r="C39" t="n">
-        <v>7.8934</v>
+        <v>7.8251</v>
       </c>
       <c r="D39" t="n">
-        <v>7.8715</v>
+        <v>7.8174</v>
       </c>
       <c r="E39" t="n">
-        <v>7.7859</v>
+        <v>7.7615</v>
       </c>
       <c r="F39" t="n">
-        <v>7.709</v>
+        <v>7.7083</v>
       </c>
       <c r="G39" t="n">
-        <v>7.6888</v>
+        <v>7.685</v>
       </c>
       <c r="H39" t="n">
-        <v>7.699</v>
+        <v>7.6593</v>
       </c>
       <c r="I39" t="n">
-        <v>7.6758</v>
+        <v>7.6134</v>
       </c>
       <c r="J39" t="n">
-        <v>7.7024</v>
+        <v>7.6532</v>
       </c>
       <c r="K39" t="n">
-        <v>7.7596</v>
+        <v>7.7206</v>
       </c>
       <c r="L39" t="n">
-        <v>7.8189</v>
+        <v>7.7873</v>
       </c>
       <c r="M39" t="n">
-        <v>7.8641</v>
+        <v>7.8368</v>
       </c>
       <c r="N39" t="n">
-        <v>7.8825</v>
+        <v>7.8557</v>
       </c>
       <c r="O39" t="n">
-        <v>7.8626</v>
+        <v>7.8317</v>
       </c>
       <c r="P39" t="n">
-        <v>7.7928</v>
+        <v>7.7523</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0775</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12/12/2025</t>
+          <t>16/12/2025</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.6907</v>
+        <v>7.8054</v>
       </c>
       <c r="C40" t="n">
-        <v>7.6767</v>
+        <v>7.83</v>
       </c>
       <c r="D40" t="n">
-        <v>7.6666</v>
+        <v>7.8194</v>
       </c>
       <c r="E40" t="n">
-        <v>7.6472</v>
+        <v>7.7612</v>
       </c>
       <c r="F40" t="n">
-        <v>7.6408</v>
+        <v>7.7079</v>
       </c>
       <c r="G40" t="n">
-        <v>7.6859</v>
+        <v>7.7005</v>
       </c>
       <c r="H40" t="n">
-        <v>7.7435</v>
+        <v>7.7006</v>
       </c>
       <c r="I40" t="n">
-        <v>7.6751</v>
+        <v>7.6477</v>
       </c>
       <c r="J40" t="n">
-        <v>7.7029</v>
+        <v>7.671</v>
       </c>
       <c r="K40" t="n">
-        <v>7.761</v>
+        <v>7.7254</v>
       </c>
       <c r="L40" t="n">
-        <v>7.821</v>
+        <v>7.7832</v>
       </c>
       <c r="M40" t="n">
-        <v>7.8665</v>
+        <v>7.8285</v>
       </c>
       <c r="N40" t="n">
-        <v>7.8849</v>
+        <v>7.8491</v>
       </c>
       <c r="O40" t="n">
-        <v>7.8642</v>
+        <v>7.8341</v>
       </c>
       <c r="P40" t="n">
-        <v>7.7931</v>
+        <v>7.7725</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0766</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>15/12/2025</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.8015</v>
+        <v>7.8856</v>
       </c>
       <c r="C41" t="n">
-        <v>7.8014</v>
+        <v>7.8934</v>
       </c>
       <c r="D41" t="n">
-        <v>7.7863</v>
+        <v>7.8715</v>
       </c>
       <c r="E41" t="n">
-        <v>7.7342</v>
+        <v>7.7859</v>
       </c>
       <c r="F41" t="n">
-        <v>7.6923</v>
+        <v>7.709</v>
       </c>
       <c r="G41" t="n">
-        <v>7.6995</v>
+        <v>7.6888</v>
       </c>
       <c r="H41" t="n">
-        <v>7.7352</v>
+        <v>7.699</v>
       </c>
       <c r="I41" t="n">
-        <v>7.7073</v>
+        <v>7.6758</v>
       </c>
       <c r="J41" t="n">
-        <v>7.7509</v>
+        <v>7.7024</v>
       </c>
       <c r="K41" t="n">
-        <v>7.8204</v>
+        <v>7.7596</v>
       </c>
       <c r="L41" t="n">
-        <v>7.8856</v>
+        <v>7.8189</v>
       </c>
       <c r="M41" t="n">
-        <v>7.9281</v>
+        <v>7.8641</v>
       </c>
       <c r="N41" t="n">
-        <v>7.9329</v>
+        <v>7.8825</v>
       </c>
       <c r="O41" t="n">
-        <v>7.8858</v>
+        <v>7.8626</v>
       </c>
       <c r="P41" t="n">
-        <v>7.773</v>
+        <v>7.7928</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0772</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>12/12/2025</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.8031</v>
+        <v>7.6907</v>
       </c>
       <c r="C42" t="n">
-        <v>7.8506</v>
+        <v>7.6767</v>
       </c>
       <c r="D42" t="n">
-        <v>7.8504</v>
+        <v>7.6666</v>
       </c>
       <c r="E42" t="n">
-        <v>7.8106</v>
+        <v>7.6472</v>
       </c>
       <c r="F42" t="n">
-        <v>7.771</v>
+        <v>7.6408</v>
       </c>
       <c r="G42" t="n">
-        <v>7.7674</v>
+        <v>7.6859</v>
       </c>
       <c r="H42" t="n">
-        <v>7.7675</v>
+        <v>7.7435</v>
       </c>
       <c r="I42" t="n">
-        <v>7.7141</v>
+        <v>7.6751</v>
       </c>
       <c r="J42" t="n">
-        <v>7.7514</v>
+        <v>7.7029</v>
       </c>
       <c r="K42" t="n">
-        <v>7.8167</v>
+        <v>7.761</v>
       </c>
       <c r="L42" t="n">
-        <v>7.8804</v>
+        <v>7.821</v>
       </c>
       <c r="M42" t="n">
-        <v>7.925</v>
+        <v>7.8665</v>
       </c>
       <c r="N42" t="n">
-        <v>7.9362</v>
+        <v>7.8849</v>
       </c>
       <c r="O42" t="n">
-        <v>7.901</v>
+        <v>7.8642</v>
       </c>
       <c r="P42" t="n">
-        <v>7.8063</v>
+        <v>7.7931</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0775</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.7747</v>
+        <v>7.8015</v>
       </c>
       <c r="C43" t="n">
-        <v>7.7729</v>
+        <v>7.8014</v>
       </c>
       <c r="D43" t="n">
-        <v>7.7665</v>
+        <v>7.7863</v>
       </c>
       <c r="E43" t="n">
-        <v>7.7495</v>
+        <v>7.7342</v>
       </c>
       <c r="F43" t="n">
-        <v>7.7435</v>
+        <v>7.6923</v>
       </c>
       <c r="G43" t="n">
-        <v>7.7693</v>
+        <v>7.6995</v>
       </c>
       <c r="H43" t="n">
-        <v>7.7886</v>
+        <v>7.7352</v>
       </c>
       <c r="I43" t="n">
-        <v>7.7141</v>
+        <v>7.7073</v>
       </c>
       <c r="J43" t="n">
-        <v>7.7571</v>
+        <v>7.7509</v>
       </c>
       <c r="K43" t="n">
-        <v>7.8288</v>
+        <v>7.8204</v>
       </c>
       <c r="L43" t="n">
-        <v>7.9006</v>
+        <v>7.8856</v>
       </c>
       <c r="M43" t="n">
-        <v>7.9555</v>
+        <v>7.9281</v>
       </c>
       <c r="N43" t="n">
-        <v>7.9801</v>
+        <v>7.9329</v>
       </c>
       <c r="O43" t="n">
-        <v>7.9617</v>
+        <v>7.8858</v>
       </c>
       <c r="P43" t="n">
-        <v>7.8874</v>
+        <v>7.773</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.07729999999999999</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.8302</v>
+        <v>7.8031</v>
       </c>
       <c r="C44" t="n">
-        <v>7.8396</v>
+        <v>7.8506</v>
       </c>
       <c r="D44" t="n">
-        <v>7.8304</v>
+        <v>7.8504</v>
       </c>
       <c r="E44" t="n">
-        <v>7.7925</v>
+        <v>7.8106</v>
       </c>
       <c r="F44" t="n">
-        <v>7.7632</v>
+        <v>7.771</v>
       </c>
       <c r="G44" t="n">
-        <v>7.7683</v>
+        <v>7.7674</v>
       </c>
       <c r="H44" t="n">
-        <v>7.7743</v>
+        <v>7.7675</v>
       </c>
       <c r="I44" t="n">
-        <v>7.7159</v>
+        <v>7.7141</v>
       </c>
       <c r="J44" t="n">
-        <v>7.7582</v>
+        <v>7.7514</v>
       </c>
       <c r="K44" t="n">
-        <v>7.8294</v>
+        <v>7.8167</v>
       </c>
       <c r="L44" t="n">
-        <v>7.9007</v>
+        <v>7.8804</v>
       </c>
       <c r="M44" t="n">
-        <v>7.9553</v>
+        <v>7.925</v>
       </c>
       <c r="N44" t="n">
-        <v>7.9799</v>
+        <v>7.9362</v>
       </c>
       <c r="O44" t="n">
-        <v>7.9615</v>
+        <v>7.901</v>
       </c>
       <c r="P44" t="n">
-        <v>7.8877</v>
+        <v>7.8063</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0776</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>05/12/2025</t>
+          <t>09/12/2025</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.7461</v>
+        <v>7.7747</v>
       </c>
       <c r="C45" t="n">
-        <v>7.7987</v>
+        <v>7.7729</v>
       </c>
       <c r="D45" t="n">
-        <v>7.8085</v>
+        <v>7.7665</v>
       </c>
       <c r="E45" t="n">
-        <v>7.7877</v>
+        <v>7.7495</v>
       </c>
       <c r="F45" t="n">
-        <v>7.7625</v>
+        <v>7.7435</v>
       </c>
       <c r="G45" t="n">
-        <v>7.7689</v>
+        <v>7.7693</v>
       </c>
       <c r="H45" t="n">
-        <v>7.7755</v>
+        <v>7.7886</v>
       </c>
       <c r="I45" t="n">
-        <v>7.7174</v>
+        <v>7.7141</v>
       </c>
       <c r="J45" t="n">
-        <v>7.7597</v>
+        <v>7.7571</v>
       </c>
       <c r="K45" t="n">
-        <v>7.8307</v>
+        <v>7.8288</v>
       </c>
       <c r="L45" t="n">
-        <v>7.9019</v>
+        <v>7.9006</v>
       </c>
       <c r="M45" t="n">
-        <v>7.9565</v>
+        <v>7.9555</v>
       </c>
       <c r="N45" t="n">
-        <v>7.9809</v>
+        <v>7.9801</v>
       </c>
       <c r="O45" t="n">
-        <v>7.9624</v>
+        <v>7.9617</v>
       </c>
       <c r="P45" t="n">
-        <v>7.8883</v>
+        <v>7.8874</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0774</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.6572</v>
+        <v>7.8302</v>
       </c>
       <c r="C46" t="n">
-        <v>7.7575</v>
+        <v>7.8396</v>
       </c>
       <c r="D46" t="n">
-        <v>7.7844</v>
+        <v>7.8304</v>
       </c>
       <c r="E46" t="n">
-        <v>7.7734</v>
+        <v>7.7925</v>
       </c>
       <c r="F46" t="n">
-        <v>7.7448</v>
+        <v>7.7632</v>
       </c>
       <c r="G46" t="n">
-        <v>7.7448</v>
+        <v>7.7683</v>
       </c>
       <c r="H46" t="n">
-        <v>7.7494</v>
+        <v>7.7743</v>
       </c>
       <c r="I46" t="n">
-        <v>7.7038</v>
+        <v>7.7159</v>
       </c>
       <c r="J46" t="n">
-        <v>7.751</v>
+        <v>7.7582</v>
       </c>
       <c r="K46" t="n">
-        <v>7.8265</v>
+        <v>7.8294</v>
       </c>
       <c r="L46" t="n">
-        <v>7.9023</v>
+        <v>7.9007</v>
       </c>
       <c r="M46" t="n">
-        <v>7.9617</v>
+        <v>7.9553</v>
       </c>
       <c r="N46" t="n">
-        <v>7.9912</v>
+        <v>7.9799</v>
       </c>
       <c r="O46" t="n">
-        <v>7.9782</v>
+        <v>7.9615</v>
       </c>
       <c r="P46" t="n">
-        <v>7.9099</v>
+        <v>7.8877</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.077</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>05/12/2025</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7.784</v>
+        <v>7.7461</v>
       </c>
       <c r="C47" t="n">
-        <v>7.8379</v>
+        <v>7.7987</v>
       </c>
       <c r="D47" t="n">
-        <v>7.8403</v>
+        <v>7.8085</v>
       </c>
       <c r="E47" t="n">
-        <v>7.8049</v>
+        <v>7.7877</v>
       </c>
       <c r="F47" t="n">
-        <v>7.7684</v>
+        <v>7.7625</v>
       </c>
       <c r="G47" t="n">
-        <v>7.7624</v>
+        <v>7.7689</v>
       </c>
       <c r="H47" t="n">
-        <v>7.7581</v>
+        <v>7.7755</v>
       </c>
       <c r="I47" t="n">
-        <v>7.7081</v>
+        <v>7.7174</v>
       </c>
       <c r="J47" t="n">
-        <v>7.7534</v>
+        <v>7.7597</v>
       </c>
       <c r="K47" t="n">
-        <v>7.8274</v>
+        <v>7.8307</v>
       </c>
       <c r="L47" t="n">
-        <v>7.902</v>
+        <v>7.9019</v>
       </c>
       <c r="M47" t="n">
-        <v>7.9606</v>
+        <v>7.9565</v>
       </c>
       <c r="N47" t="n">
-        <v>7.9899</v>
+        <v>7.9809</v>
       </c>
       <c r="O47" t="n">
-        <v>7.9773</v>
+        <v>7.9624</v>
       </c>
       <c r="P47" t="n">
-        <v>7.9102</v>
+        <v>7.8883</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0774</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>02/12/2025</t>
+          <t>04/12/2025</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.9711</v>
+        <v>7.6572</v>
       </c>
       <c r="C48" t="n">
-        <v>7.9814</v>
+        <v>7.7575</v>
       </c>
       <c r="D48" t="n">
-        <v>7.9595</v>
+        <v>7.7844</v>
       </c>
       <c r="E48" t="n">
-        <v>7.8724</v>
+        <v>7.7734</v>
       </c>
       <c r="F48" t="n">
-        <v>7.794</v>
+        <v>7.7448</v>
       </c>
       <c r="G48" t="n">
-        <v>7.7555</v>
+        <v>7.7448</v>
       </c>
       <c r="H48" t="n">
-        <v>7.7445</v>
+        <v>7.7494</v>
       </c>
       <c r="I48" t="n">
-        <v>7.7374</v>
+        <v>7.7038</v>
       </c>
       <c r="J48" t="n">
-        <v>7.7916</v>
+        <v>7.751</v>
       </c>
       <c r="K48" t="n">
-        <v>7.8735</v>
+        <v>7.8265</v>
       </c>
       <c r="L48" t="n">
-        <v>7.9546</v>
+        <v>7.9023</v>
       </c>
       <c r="M48" t="n">
-        <v>8.017899999999999</v>
+        <v>7.9617</v>
       </c>
       <c r="N48" t="n">
-        <v>8.0495</v>
+        <v>7.9912</v>
       </c>
       <c r="O48" t="n">
-        <v>8.036</v>
+        <v>7.9782</v>
       </c>
       <c r="P48" t="n">
-        <v>7.964</v>
+        <v>7.9099</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.07820000000000001</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>01/12/2025</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8.0191</v>
+        <v>7.784</v>
       </c>
       <c r="C49" t="n">
-        <v>7.9922</v>
+        <v>7.8379</v>
       </c>
       <c r="D49" t="n">
-        <v>7.9602</v>
+        <v>7.8403</v>
       </c>
       <c r="E49" t="n">
-        <v>7.8691</v>
+        <v>7.8049</v>
       </c>
       <c r="F49" t="n">
-        <v>7.7951</v>
+        <v>7.7684</v>
       </c>
       <c r="G49" t="n">
-        <v>7.7622</v>
+        <v>7.7624</v>
       </c>
       <c r="H49" t="n">
-        <v>7.7538</v>
+        <v>7.7581</v>
       </c>
       <c r="I49" t="n">
-        <v>7.7393</v>
+        <v>7.7081</v>
       </c>
       <c r="J49" t="n">
-        <v>7.7917</v>
+        <v>7.7534</v>
       </c>
       <c r="K49" t="n">
-        <v>7.8725</v>
+        <v>7.8274</v>
       </c>
       <c r="L49" t="n">
-        <v>7.9534</v>
+        <v>7.902</v>
       </c>
       <c r="M49" t="n">
-        <v>8.0174</v>
+        <v>7.9606</v>
       </c>
       <c r="N49" t="n">
-        <v>8.0511</v>
+        <v>7.9899</v>
       </c>
       <c r="O49" t="n">
-        <v>8.041399999999999</v>
+        <v>7.9773</v>
       </c>
       <c r="P49" t="n">
-        <v>7.9751</v>
+        <v>7.9102</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.07829999999999999</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>28/11/2025</t>
+          <t>02/12/2025</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7.902</v>
+        <v>7.9711</v>
       </c>
       <c r="C50" t="n">
-        <v>7.9139</v>
+        <v>7.9814</v>
       </c>
       <c r="D50" t="n">
-        <v>7.9135</v>
+        <v>7.9595</v>
       </c>
       <c r="E50" t="n">
-        <v>7.8535</v>
+        <v>7.8724</v>
       </c>
       <c r="F50" t="n">
-        <v>7.7765</v>
+        <v>7.794</v>
       </c>
       <c r="G50" t="n">
-        <v>7.734</v>
+        <v>7.7555</v>
       </c>
       <c r="H50" t="n">
-        <v>7.7255</v>
+        <v>7.7445</v>
       </c>
       <c r="I50" t="n">
-        <v>7.7348</v>
+        <v>7.7374</v>
       </c>
       <c r="J50" t="n">
-        <v>7.796</v>
+        <v>7.7916</v>
       </c>
       <c r="K50" t="n">
-        <v>7.8836</v>
+        <v>7.8735</v>
       </c>
       <c r="L50" t="n">
-        <v>7.9692</v>
+        <v>7.9546</v>
       </c>
       <c r="M50" t="n">
-        <v>8.0351</v>
+        <v>8.017899999999999</v>
       </c>
       <c r="N50" t="n">
-        <v>8.067</v>
+        <v>8.0495</v>
       </c>
       <c r="O50" t="n">
-        <v>8.0511</v>
+        <v>8.036</v>
       </c>
       <c r="P50" t="n">
-        <v>7.9732</v>
+        <v>7.964</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.07820000000000001</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>27/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.8583</v>
+        <v>8.0191</v>
       </c>
       <c r="C51" t="n">
-        <v>7.9832</v>
+        <v>7.9922</v>
       </c>
       <c r="D51" t="n">
-        <v>8.0022</v>
+        <v>7.9602</v>
       </c>
       <c r="E51" t="n">
-        <v>7.9269</v>
+        <v>7.8691</v>
       </c>
       <c r="F51" t="n">
-        <v>7.8267</v>
+        <v>7.7951</v>
       </c>
       <c r="G51" t="n">
-        <v>7.7624</v>
+        <v>7.7622</v>
       </c>
       <c r="H51" t="n">
-        <v>7.7335</v>
+        <v>7.7538</v>
       </c>
       <c r="I51" t="n">
-        <v>7.7491</v>
+        <v>7.7393</v>
       </c>
       <c r="J51" t="n">
-        <v>7.8035</v>
+        <v>7.7917</v>
       </c>
       <c r="K51" t="n">
-        <v>7.8857</v>
+        <v>7.8725</v>
       </c>
       <c r="L51" t="n">
-        <v>7.967</v>
+        <v>7.9534</v>
       </c>
       <c r="M51" t="n">
-        <v>8.030200000000001</v>
+        <v>8.0174</v>
       </c>
       <c r="N51" t="n">
-        <v>8.061400000000001</v>
+        <v>8.0511</v>
       </c>
       <c r="O51" t="n">
-        <v>8.047000000000001</v>
+        <v>8.041399999999999</v>
       </c>
       <c r="P51" t="n">
-        <v>7.9737</v>
+        <v>7.9751</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.07820000000000001</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7.8281</v>
+        <v>7.902</v>
       </c>
       <c r="C52" t="n">
-        <v>7.9316</v>
+        <v>7.9139</v>
       </c>
       <c r="D52" t="n">
-        <v>7.9409</v>
+        <v>7.9135</v>
       </c>
       <c r="E52" t="n">
-        <v>7.8622</v>
+        <v>7.8535</v>
       </c>
       <c r="F52" t="n">
-        <v>7.7663</v>
+        <v>7.7765</v>
       </c>
       <c r="G52" t="n">
-        <v>7.7138</v>
+        <v>7.734</v>
       </c>
       <c r="H52" t="n">
-        <v>7.7068</v>
+        <v>7.7255</v>
       </c>
       <c r="I52" t="n">
-        <v>7.7287</v>
+        <v>7.7348</v>
       </c>
       <c r="J52" t="n">
-        <v>7.7833</v>
+        <v>7.796</v>
       </c>
       <c r="K52" t="n">
-        <v>7.8654</v>
+        <v>7.8836</v>
       </c>
       <c r="L52" t="n">
-        <v>7.9468</v>
+        <v>7.9692</v>
       </c>
       <c r="M52" t="n">
-        <v>8.010199999999999</v>
+        <v>8.0351</v>
       </c>
       <c r="N52" t="n">
-        <v>8.0419</v>
+        <v>8.067</v>
       </c>
       <c r="O52" t="n">
-        <v>8.028499999999999</v>
+        <v>8.0511</v>
       </c>
       <c r="P52" t="n">
-        <v>7.9567</v>
+        <v>7.9732</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0779</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>27/11/2025</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7.8568</v>
+        <v>7.8583</v>
       </c>
       <c r="C53" t="n">
-        <v>7.9278</v>
+        <v>7.9832</v>
       </c>
       <c r="D53" t="n">
-        <v>7.9245</v>
+        <v>8.0022</v>
       </c>
       <c r="E53" t="n">
-        <v>7.8445</v>
+        <v>7.9269</v>
       </c>
       <c r="F53" t="n">
-        <v>7.758</v>
+        <v>7.8267</v>
       </c>
       <c r="G53" t="n">
-        <v>7.717</v>
+        <v>7.7624</v>
       </c>
       <c r="H53" t="n">
-        <v>7.717</v>
+        <v>7.7335</v>
       </c>
       <c r="I53" t="n">
-        <v>7.7268</v>
+        <v>7.7491</v>
       </c>
       <c r="J53" t="n">
-        <v>7.7787</v>
+        <v>7.8035</v>
       </c>
       <c r="K53" t="n">
-        <v>7.8598</v>
+        <v>7.8857</v>
       </c>
       <c r="L53" t="n">
-        <v>7.9425</v>
+        <v>7.967</v>
       </c>
       <c r="M53" t="n">
-        <v>8.010400000000001</v>
+        <v>8.030200000000001</v>
       </c>
       <c r="N53" t="n">
-        <v>8.050599999999999</v>
+        <v>8.061400000000001</v>
       </c>
       <c r="O53" t="n">
-        <v>8.050599999999999</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="P53" t="n">
-        <v>7.9978</v>
+        <v>7.9737</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.078</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7.9101</v>
+        <v>7.8281</v>
       </c>
       <c r="C54" t="n">
-        <v>7.9512</v>
+        <v>7.9316</v>
       </c>
       <c r="D54" t="n">
-        <v>7.9363</v>
+        <v>7.9409</v>
       </c>
       <c r="E54" t="n">
-        <v>7.8464</v>
+        <v>7.8622</v>
       </c>
       <c r="F54" t="n">
-        <v>7.7583</v>
+        <v>7.7663</v>
       </c>
       <c r="G54" t="n">
-        <v>7.7175</v>
+        <v>7.7138</v>
       </c>
       <c r="H54" t="n">
-        <v>7.7184</v>
+        <v>7.7068</v>
       </c>
       <c r="I54" t="n">
-        <v>7.7275</v>
+        <v>7.7287</v>
       </c>
       <c r="J54" t="n">
-        <v>7.7793</v>
+        <v>7.7833</v>
       </c>
       <c r="K54" t="n">
-        <v>7.8603</v>
+        <v>7.8654</v>
       </c>
       <c r="L54" t="n">
-        <v>7.9428</v>
+        <v>7.9468</v>
       </c>
       <c r="M54" t="n">
-        <v>8.0107</v>
+        <v>8.010199999999999</v>
       </c>
       <c r="N54" t="n">
-        <v>8.050800000000001</v>
+        <v>8.0419</v>
       </c>
       <c r="O54" t="n">
-        <v>8.050800000000001</v>
+        <v>8.028499999999999</v>
       </c>
       <c r="P54" t="n">
-        <v>7.998</v>
+        <v>7.9567</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0781</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7.755</v>
+        <v>7.8568</v>
       </c>
       <c r="C55" t="n">
-        <v>7.8539</v>
+        <v>7.9278</v>
       </c>
       <c r="D55" t="n">
-        <v>7.8873</v>
+        <v>7.9245</v>
       </c>
       <c r="E55" t="n">
-        <v>7.841</v>
+        <v>7.8445</v>
       </c>
       <c r="F55" t="n">
-        <v>7.7623</v>
+        <v>7.758</v>
       </c>
       <c r="G55" t="n">
-        <v>7.7226</v>
+        <v>7.717</v>
       </c>
       <c r="H55" t="n">
-        <v>7.7205</v>
+        <v>7.717</v>
       </c>
       <c r="I55" t="n">
-        <v>7.7292</v>
+        <v>7.7268</v>
       </c>
       <c r="J55" t="n">
-        <v>7.7806</v>
+        <v>7.7787</v>
       </c>
       <c r="K55" t="n">
-        <v>7.8613</v>
+        <v>7.8598</v>
       </c>
       <c r="L55" t="n">
-        <v>7.9437</v>
+        <v>7.9425</v>
       </c>
       <c r="M55" t="n">
-        <v>8.0116</v>
+        <v>8.010400000000001</v>
       </c>
       <c r="N55" t="n">
-        <v>8.052</v>
+        <v>8.050599999999999</v>
       </c>
       <c r="O55" t="n">
-        <v>8.0525</v>
+        <v>8.050599999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>8.0006</v>
+        <v>7.9978</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.07770000000000001</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7.7921</v>
+        <v>7.9101</v>
       </c>
       <c r="C56" t="n">
-        <v>7.8361</v>
+        <v>7.9512</v>
       </c>
       <c r="D56" t="n">
-        <v>7.844</v>
+        <v>7.9363</v>
       </c>
       <c r="E56" t="n">
-        <v>7.7907</v>
+        <v>7.8464</v>
       </c>
       <c r="F56" t="n">
-        <v>7.7263</v>
+        <v>7.7583</v>
       </c>
       <c r="G56" t="n">
-        <v>7.6985</v>
+        <v>7.7175</v>
       </c>
       <c r="H56" t="n">
-        <v>7.7069</v>
+        <v>7.7184</v>
       </c>
       <c r="I56" t="n">
-        <v>7.7136</v>
+        <v>7.7275</v>
       </c>
       <c r="J56" t="n">
-        <v>7.7768</v>
+        <v>7.7793</v>
       </c>
       <c r="K56" t="n">
-        <v>7.867</v>
+        <v>7.8603</v>
       </c>
       <c r="L56" t="n">
-        <v>7.9566</v>
+        <v>7.9428</v>
       </c>
       <c r="M56" t="n">
-        <v>8.0289</v>
+        <v>8.0107</v>
       </c>
       <c r="N56" t="n">
-        <v>8.0701</v>
+        <v>8.050800000000001</v>
       </c>
       <c r="O56" t="n">
-        <v>8.0669</v>
+        <v>8.050800000000001</v>
       </c>
       <c r="P56" t="n">
-        <v>8.005699999999999</v>
+        <v>7.998</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.07770000000000001</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7.7877</v>
+        <v>7.755</v>
       </c>
       <c r="C57" t="n">
-        <v>7.9196</v>
+        <v>7.8539</v>
       </c>
       <c r="D57" t="n">
-        <v>7.9629</v>
+        <v>7.8873</v>
       </c>
       <c r="E57" t="n">
-        <v>7.8939</v>
+        <v>7.841</v>
       </c>
       <c r="F57" t="n">
-        <v>7.7779</v>
+        <v>7.7623</v>
       </c>
       <c r="G57" t="n">
-        <v>7.697</v>
+        <v>7.7226</v>
       </c>
       <c r="H57" t="n">
-        <v>7.667</v>
+        <v>7.7205</v>
       </c>
       <c r="I57" t="n">
-        <v>7.7148</v>
+        <v>7.7292</v>
       </c>
       <c r="J57" t="n">
-        <v>7.7769</v>
+        <v>7.7806</v>
       </c>
       <c r="K57" t="n">
-        <v>7.8665</v>
+        <v>7.8613</v>
       </c>
       <c r="L57" t="n">
-        <v>7.9559</v>
+        <v>7.9437</v>
       </c>
       <c r="M57" t="n">
-        <v>8.028600000000001</v>
+        <v>8.0116</v>
       </c>
       <c r="N57" t="n">
-        <v>8.071099999999999</v>
+        <v>8.052</v>
       </c>
       <c r="O57" t="n">
-        <v>8.0701</v>
+        <v>8.0525</v>
       </c>
       <c r="P57" t="n">
-        <v>8.0124</v>
+        <v>8.0006</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0779</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>20/11/2025</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7.8842</v>
+        <v>7.7921</v>
       </c>
       <c r="C58" t="n">
-        <v>7.8909</v>
+        <v>7.8361</v>
       </c>
       <c r="D58" t="n">
-        <v>7.8684</v>
+        <v>7.844</v>
       </c>
       <c r="E58" t="n">
-        <v>7.7818</v>
+        <v>7.7907</v>
       </c>
       <c r="F58" t="n">
-        <v>7.7041</v>
+        <v>7.7263</v>
       </c>
       <c r="G58" t="n">
-        <v>7.6738</v>
+        <v>7.6985</v>
       </c>
       <c r="H58" t="n">
-        <v>7.6933</v>
+        <v>7.7069</v>
       </c>
       <c r="I58" t="n">
-        <v>7.714</v>
+        <v>7.7136</v>
       </c>
       <c r="J58" t="n">
-        <v>7.7783</v>
+        <v>7.7768</v>
       </c>
       <c r="K58" t="n">
-        <v>7.8691</v>
+        <v>7.867</v>
       </c>
       <c r="L58" t="n">
-        <v>7.9587</v>
+        <v>7.9566</v>
       </c>
       <c r="M58" t="n">
-        <v>8.0299</v>
+        <v>8.0289</v>
       </c>
       <c r="N58" t="n">
-        <v>8.068899999999999</v>
+        <v>8.0701</v>
       </c>
       <c r="O58" t="n">
-        <v>8.061999999999999</v>
+        <v>8.0669</v>
       </c>
       <c r="P58" t="n">
-        <v>7.9955</v>
+        <v>8.005699999999999</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.07779999999999999</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7.946</v>
+        <v>7.7877</v>
       </c>
       <c r="C59" t="n">
-        <v>7.9566</v>
+        <v>7.9196</v>
       </c>
       <c r="D59" t="n">
-        <v>7.9293</v>
+        <v>7.9629</v>
       </c>
       <c r="E59" t="n">
-        <v>7.821</v>
+        <v>7.8939</v>
       </c>
       <c r="F59" t="n">
-        <v>7.721</v>
+        <v>7.7779</v>
       </c>
       <c r="G59" t="n">
-        <v>7.6705</v>
+        <v>7.697</v>
       </c>
       <c r="H59" t="n">
-        <v>7.6762</v>
+        <v>7.667</v>
       </c>
       <c r="I59" t="n">
-        <v>7.7114</v>
+        <v>7.7148</v>
       </c>
       <c r="J59" t="n">
-        <v>7.7748</v>
+        <v>7.7769</v>
       </c>
       <c r="K59" t="n">
-        <v>7.8652</v>
+        <v>7.8665</v>
       </c>
       <c r="L59" t="n">
-        <v>7.9547</v>
+        <v>7.9559</v>
       </c>
       <c r="M59" t="n">
-        <v>8.026400000000001</v>
+        <v>8.028600000000001</v>
       </c>
       <c r="N59" t="n">
-        <v>8.0665</v>
+        <v>8.071099999999999</v>
       </c>
       <c r="O59" t="n">
-        <v>8.0617</v>
+        <v>8.0701</v>
       </c>
       <c r="P59" t="n">
-        <v>7.9982</v>
+        <v>8.0124</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.0781</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>14/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7.8057</v>
+        <v>7.8842</v>
       </c>
       <c r="C60" t="n">
-        <v>7.8336</v>
+        <v>7.8909</v>
       </c>
       <c r="D60" t="n">
-        <v>7.8237</v>
+        <v>7.8684</v>
       </c>
       <c r="E60" t="n">
-        <v>7.7521</v>
+        <v>7.7818</v>
       </c>
       <c r="F60" t="n">
-        <v>7.6814</v>
+        <v>7.7041</v>
       </c>
       <c r="G60" t="n">
-        <v>7.6519</v>
+        <v>7.6738</v>
       </c>
       <c r="H60" t="n">
-        <v>7.6711</v>
+        <v>7.6933</v>
       </c>
       <c r="I60" t="n">
-        <v>7.696</v>
+        <v>7.714</v>
       </c>
       <c r="J60" t="n">
-        <v>7.7673</v>
+        <v>7.7783</v>
       </c>
       <c r="K60" t="n">
-        <v>7.8641</v>
+        <v>7.8691</v>
       </c>
       <c r="L60" t="n">
-        <v>7.9585</v>
+        <v>7.9587</v>
       </c>
       <c r="M60" t="n">
-        <v>8.0334</v>
+        <v>8.0299</v>
       </c>
       <c r="N60" t="n">
-        <v>8.074400000000001</v>
+        <v>8.068899999999999</v>
       </c>
       <c r="O60" t="n">
-        <v>8.0677</v>
+        <v>8.061999999999999</v>
       </c>
       <c r="P60" t="n">
-        <v>7.9989</v>
+        <v>7.9955</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.0776</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>7.7464</v>
+        <v>7.946</v>
       </c>
       <c r="C61" t="n">
-        <v>7.7766</v>
+        <v>7.9566</v>
       </c>
       <c r="D61" t="n">
-        <v>7.7738</v>
+        <v>7.9293</v>
       </c>
       <c r="E61" t="n">
-        <v>7.7406</v>
+        <v>7.821</v>
       </c>
       <c r="F61" t="n">
-        <v>7.7111</v>
+        <v>7.721</v>
       </c>
       <c r="G61" t="n">
-        <v>7.7149</v>
+        <v>7.6705</v>
       </c>
       <c r="H61" t="n">
-        <v>7.7395</v>
+        <v>7.6762</v>
       </c>
       <c r="I61" t="n">
-        <v>7.7154</v>
+        <v>7.7114</v>
       </c>
       <c r="J61" t="n">
-        <v>7.7785</v>
+        <v>7.7748</v>
       </c>
       <c r="K61" t="n">
-        <v>7.8684</v>
+        <v>7.8652</v>
       </c>
       <c r="L61" t="n">
-        <v>7.9569</v>
+        <v>7.9547</v>
       </c>
       <c r="M61" t="n">
-        <v>8.026999999999999</v>
+        <v>8.026400000000001</v>
       </c>
       <c r="N61" t="n">
-        <v>8.0647</v>
+        <v>8.0665</v>
       </c>
       <c r="O61" t="n">
-        <v>8.0565</v>
+        <v>8.0617</v>
       </c>
       <c r="P61" t="n">
-        <v>7.9885</v>
+        <v>7.9982</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.0771</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>14/11/2025</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7.8948</v>
+        <v>7.8057</v>
       </c>
       <c r="C62" t="n">
-        <v>8.044</v>
+        <v>7.8336</v>
       </c>
       <c r="D62" t="n">
-        <v>8.0449</v>
+        <v>7.8237</v>
       </c>
       <c r="E62" t="n">
-        <v>7.9075</v>
+        <v>7.7521</v>
       </c>
       <c r="F62" t="n">
-        <v>7.7468</v>
+        <v>7.6814</v>
       </c>
       <c r="G62" t="n">
-        <v>7.6511</v>
+        <v>7.6519</v>
       </c>
       <c r="H62" t="n">
-        <v>7.6494</v>
+        <v>7.6711</v>
       </c>
       <c r="I62" t="n">
-        <v>7.7413</v>
+        <v>7.696</v>
       </c>
       <c r="J62" t="n">
-        <v>7.7975</v>
+        <v>7.7673</v>
       </c>
       <c r="K62" t="n">
-        <v>7.8805</v>
+        <v>7.8641</v>
       </c>
       <c r="L62" t="n">
-        <v>7.9613</v>
+        <v>7.9585</v>
       </c>
       <c r="M62" t="n">
-        <v>8.0223</v>
+        <v>8.0334</v>
       </c>
       <c r="N62" t="n">
-        <v>8.049200000000001</v>
+        <v>8.074400000000001</v>
       </c>
       <c r="O62" t="n">
-        <v>8.027900000000001</v>
+        <v>8.0677</v>
       </c>
       <c r="P62" t="n">
-        <v>7.9447</v>
+        <v>7.9989</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.078</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7.8662</v>
+        <v>7.7464</v>
       </c>
       <c r="C63" t="n">
-        <v>7.9207</v>
+        <v>7.7766</v>
       </c>
       <c r="D63" t="n">
-        <v>7.9064</v>
+        <v>7.7738</v>
       </c>
       <c r="E63" t="n">
-        <v>7.8066</v>
+        <v>7.7406</v>
       </c>
       <c r="F63" t="n">
-        <v>7.7052</v>
+        <v>7.7111</v>
       </c>
       <c r="G63" t="n">
-        <v>7.6646</v>
+        <v>7.7149</v>
       </c>
       <c r="H63" t="n">
-        <v>7.6952</v>
+        <v>7.7395</v>
       </c>
       <c r="I63" t="n">
-        <v>7.7383</v>
+        <v>7.7154</v>
       </c>
       <c r="J63" t="n">
-        <v>7.7939</v>
+        <v>7.7785</v>
       </c>
       <c r="K63" t="n">
-        <v>7.8764</v>
+        <v>7.8684</v>
       </c>
       <c r="L63" t="n">
-        <v>7.9567</v>
+        <v>7.9569</v>
       </c>
       <c r="M63" t="n">
-        <v>8.017200000000001</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="N63" t="n">
-        <v>8.0434</v>
+        <v>8.0647</v>
       </c>
       <c r="O63" t="n">
-        <v>8.021699999999999</v>
+        <v>8.0565</v>
       </c>
       <c r="P63" t="n">
-        <v>7.938</v>
+        <v>7.9885</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0775</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>10/11/2025</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>7.824</v>
-      </c>
-      <c r="C64" t="n">
-        <v>7.8948</v>
-      </c>
-      <c r="D64" t="n">
-        <v>7.8872</v>
-      </c>
-      <c r="E64" t="n">
-        <v>7.7974</v>
-      </c>
-      <c r="F64" t="n">
-        <v>7.7025</v>
-      </c>
-      <c r="G64" t="n">
-        <v>7.6556</v>
-      </c>
-      <c r="H64" t="n">
-        <v>7.6697</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7.7126</v>
-      </c>
-      <c r="J64" t="n">
-        <v>7.7794</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7.8711</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.9586</v>
-      </c>
-      <c r="M64" t="n">
-        <v>8.024100000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>8.0526</v>
-      </c>
-      <c r="O64" t="n">
-        <v>8.029400000000001</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.0794</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.07729999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
   </sheetData>
